--- a/matrixmult-pthreads/Pthreads-Speeds-Kali-Linux.xlsx
+++ b/matrixmult-pthreads/Pthreads-Speeds-Kali-Linux.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fsociety/Desktop/Senior Year/Spring 2023/CSC447 - Parallel Progg:Multic.&amp;Cluster/SharedMem/matrixmult-pthreads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE2DBA9-46AC-A849-965D-060797F9231C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2F0D40-E08B-EB41-B36A-1DB53A52D57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{9AC2A181-F548-9547-B226-FB9881CBD48A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$78</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Matrix Size</t>
   </si>
@@ -46,22 +50,21 @@
   <si>
     <t>Number of Threads</t>
   </si>
+  <si>
+    <t>Speed Up</t>
+  </si>
+  <si>
+    <t>Effeciency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,9 +90,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -244,8 +246,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -287,10 +288,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$9:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -312,41 +313,35 @@
                 <c:pt idx="6">
                   <c:v>3500</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$9:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.18729999999999999</c:v>
+                  <c:v>0.171047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.331483</c:v>
+                  <c:v>1.2871300000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5889670000000002</c:v>
+                  <c:v>4.3211810000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.102506999999999</c:v>
+                  <c:v>10.393965</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.162610999999998</c:v>
+                  <c:v>20.690228000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.670803999999997</c:v>
+                  <c:v>69.848483999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312.56066499999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>491.10312399999998</c:v>
+                  <c:v>306.01543900000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,16 +1093,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>258234</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1432,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F9117C-B124-2445-811A-AF9A52053590}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,79 +1453,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2">
-        <v>0.18729999999999999</v>
+        <v>0.32658700000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1.331483</v>
+        <v>2.570392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1500</v>
       </c>
       <c r="C4">
-        <v>4.5889670000000002</v>
+        <v>8.4081159999999997</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>11.102506999999999</v>
+        <v>20.587575999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>2500</v>
       </c>
       <c r="C6">
-        <v>22.162610999999998</v>
+        <v>39.822149000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>3000</v>
       </c>
       <c r="C7">
-        <v>60.670803999999997</v>
+        <v>98.933479000000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>3500</v>
       </c>
       <c r="C8">
-        <v>312.56066499999997</v>
+        <v>312.92230899999998</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,630 +1533,1020 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="C9">
-        <v>491.10312399999998</v>
+        <v>0.171047</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C10">
-        <v>9.3692999999999999E-2</v>
+        <v>1.2871300000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="C11">
-        <v>0.69209900000000002</v>
+        <v>4.3211810000000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="C12">
-        <v>2.340713</v>
+        <v>10.393965</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="C13">
-        <v>5.6356840000000004</v>
+        <v>20.690228000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="C14">
-        <v>11.269038999999999</v>
+        <v>69.848483999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="C15">
-        <v>60.979353000000003</v>
+        <v>306.01543900000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="C16">
-        <v>328.62581599999999</v>
+        <v>0.120059</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C17">
-        <v>532.49599799999999</v>
+        <v>0.91217999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="C18">
-        <v>0.12396699999999999</v>
+        <v>3.032581</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C19">
-        <v>0.74997000000000003</v>
+        <v>7.3007850000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="C20">
-        <v>2.4525999999999999</v>
+        <v>14.846983</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="C21">
-        <v>5.6273720000000003</v>
+        <v>63.661765000000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="C22">
-        <v>12.637661</v>
+        <v>331.196729</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="C23">
-        <v>62.962780000000002</v>
+        <v>0.105683</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="C24">
-        <v>328.44775700000002</v>
+        <v>0.70796400000000004</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="C25">
-        <v>524.56992100000002</v>
+        <v>2.3407930000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C26">
-        <v>9.9906999999999996E-2</v>
+        <v>5.6608660000000004</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C27">
-        <v>0.695824</v>
+        <v>11.690568000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C28">
-        <v>2.3801239999999999</v>
+        <v>61.234478000000003</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="C29">
-        <v>5.5790100000000002</v>
+        <v>335.35831000000002</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="C30">
-        <v>11.385683999999999</v>
+        <v>0.104842</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="C31">
-        <v>64.870393000000007</v>
+        <v>0.72590299999999996</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="C32">
-        <v>334.26734800000003</v>
+        <v>2.3834710000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C33">
-        <v>354.909738</v>
+        <v>5.6314890000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="C34">
-        <v>0.10324800000000001</v>
+        <v>11.141401</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C35">
-        <v>0.73640799999999995</v>
+        <v>55.398232999999998</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="C36">
-        <v>2.7086969999999999</v>
+        <v>237.87146999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C37">
-        <v>5.7023970000000004</v>
+        <v>0.104725</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="C38">
-        <v>11.121318</v>
+        <v>0.71614100000000003</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="C39">
-        <v>61.891675999999997</v>
+        <v>2.4073129999999998</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="C40">
-        <v>334.12481200000002</v>
+        <v>5.5505190000000004</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="C41">
-        <v>532.20095500000002</v>
+        <v>10.990639</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="C42">
-        <v>9.9115999999999996E-2</v>
+        <v>53.295577000000002</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>1000</v>
+        <v>3500</v>
       </c>
       <c r="C43">
-        <v>0.71267800000000003</v>
+        <v>207.25569300000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="C44">
-        <v>2.690267</v>
+        <v>0.108566</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C45">
-        <v>5.780062</v>
+        <v>0.71162199999999998</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="C46">
-        <v>11.633747</v>
+        <v>2.3639860000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="C47">
-        <v>62.019252000000002</v>
+        <v>5.5330709999999996</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="C48">
-        <v>334.66294299999998</v>
+        <v>10.981668000000001</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="C49">
-        <v>360.16740499999997</v>
+        <v>53.067355999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="C50">
-        <v>0.100912</v>
+        <v>189.06571</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C51">
-        <v>0.71204500000000004</v>
+        <v>0.110295</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="C52">
-        <v>2.4634649999999998</v>
+        <v>0.70771300000000004</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="C53">
-        <v>5.5923980000000002</v>
+        <v>2.3888820000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="C54">
-        <v>12.134593000000001</v>
+        <v>5.5071589999999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="C55">
-        <v>64.341528999999994</v>
+        <v>11.001894999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="C56">
-        <v>323.978295</v>
+        <v>52.414472000000004</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="C57">
-        <v>532.18196499999999</v>
+        <v>207.80608899999999</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>16</v>
-      </c>
-      <c r="B58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58">
         <v>500</v>
       </c>
       <c r="C58">
-        <v>0.105297</v>
+        <v>0.11251800000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>16</v>
-      </c>
-      <c r="B59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59">
         <v>1000</v>
       </c>
       <c r="C59">
-        <v>0.84878399999999998</v>
+        <v>0.70028699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>16</v>
-      </c>
-      <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="B60">
         <v>1500</v>
       </c>
       <c r="C60">
-        <v>2.5651109999999999</v>
+        <v>2.3731200000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>16</v>
-      </c>
-      <c r="B61" s="1">
+        <v>9</v>
+      </c>
+      <c r="B61">
         <v>2000</v>
       </c>
       <c r="C61">
-        <v>6.2148690000000002</v>
+        <v>5.5206580000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>16</v>
-      </c>
-      <c r="B62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62">
         <v>2500</v>
       </c>
       <c r="C62">
-        <v>11.956184</v>
+        <v>11.174505</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>16</v>
-      </c>
-      <c r="B63" s="1">
+        <v>9</v>
+      </c>
+      <c r="B63">
         <v>3000</v>
       </c>
       <c r="C63">
-        <v>63.631453999999998</v>
+        <v>52.063755999999998</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16</v>
-      </c>
-      <c r="B64" s="1">
+        <v>9</v>
+      </c>
+      <c r="B64">
         <v>3500</v>
       </c>
       <c r="C64">
-        <v>338.13019800000001</v>
+        <v>136.46356800000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>16</v>
-      </c>
-      <c r="B65" s="1">
-        <v>4000</v>
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>500</v>
       </c>
       <c r="C65">
-        <v>525.110276</v>
+        <v>0.116054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>1000</v>
+      </c>
+      <c r="C66">
+        <v>0.712225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>1500</v>
+      </c>
+      <c r="C67">
+        <v>2.3782740000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>2000</v>
+      </c>
+      <c r="C68">
+        <v>5.5814870000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="B69">
+        <v>2500</v>
+      </c>
+      <c r="C69">
+        <v>11.034863</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>3000</v>
+      </c>
+      <c r="C70">
+        <v>52.273915000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <v>3500</v>
+      </c>
+      <c r="C71">
+        <v>206.690157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11</v>
+      </c>
+      <c r="B72">
+        <v>500</v>
+      </c>
+      <c r="C72">
+        <v>0.11309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73">
+        <v>0.70089699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>1500</v>
+      </c>
+      <c r="C74">
+        <v>2.3720880000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>2000</v>
+      </c>
+      <c r="C75">
+        <v>5.5776199999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <v>2500</v>
+      </c>
+      <c r="C76">
+        <v>10.916829999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>3000</v>
+      </c>
+      <c r="C77">
+        <v>52.334561999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78">
+        <v>3500</v>
+      </c>
+      <c r="C78">
+        <v>208.395522</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B78" xr:uid="{92F9117C-B124-2445-811A-AF9A52053590}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A82AF8-E622-C540-A31C-0C9A0D141656}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2">
+        <v>98.933479000000005</v>
+      </c>
+      <c r="D2">
+        <f>$C$2/C2</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2/A2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3000</v>
+      </c>
+      <c r="C3">
+        <v>69.848483999999999</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D12" si="0">$C$2/C3</f>
+        <v>1.4164012349931605</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="1">D3/A3</f>
+        <v>0.70820061749658025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3000</v>
+      </c>
+      <c r="C4">
+        <v>63.661765000000003</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.5540486350009304</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.51801621166697676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>61.234478000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.6156499121295687</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.40391247803239216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>55.398232999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.7858598305834052</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.35717196611668106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3000</v>
+      </c>
+      <c r="C7">
+        <v>53.295577000000002</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.8563168759764062</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.30938614599606767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3000</v>
+      </c>
+      <c r="C8">
+        <v>53.067355999999997</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.8643001358499944</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.26632859083571347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3000</v>
+      </c>
+      <c r="C9">
+        <v>52.414472000000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.8875221904362596</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.23594027380453245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3000</v>
+      </c>
+      <c r="C10">
+        <v>52.063755999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.9002370670298934</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.21113745189221036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3000</v>
+      </c>
+      <c r="C11">
+        <v>52.273915000000002</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.8925974647202146</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.18925974647202146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3000</v>
+      </c>
+      <c r="C12">
+        <v>52.334561999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.8904042609547398</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.17185493281406725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>